--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32949.76975971543</v>
+        <v>6557004.182183373</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32949.76975971543</v>
+        <v>6557004.182183373</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9965.33958754762</v>
+        <v>599693.4060461107</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9965.33958754762</v>
+        <v>599693.4060461107</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112993138.727727</v>
+        <v>45840057.99714909</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10300.03621147928</v>
+        <v>1115661.77262065</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19377.0826501275</v>
+        <v>2028710.126861781</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28454.12908877569</v>
+        <v>2941758.481102914</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38005.99472400835</v>
+        <v>3824430.052726666</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47557.86035924099</v>
+        <v>4707101.624350416</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56744.40143776007</v>
+        <v>5619870.744693911</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65930.94251627916</v>
+        <v>6532639.865037402</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75117.48359479803</v>
+        <v>7445408.985380936</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84496.50388222809</v>
+        <v>8327000.902735752</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93904.03326056844</v>
+        <v>9214266.12918134</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103130.1240662107</v>
+        <v>10133016.56450415</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112327.5611980756</v>
+        <v>11046064.91874528</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121524.9983299406</v>
+        <v>11959113.27298642</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131076.719382306</v>
+        <v>12841756.07261937</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140628.5850175387</v>
+        <v>13724427.64424312</v>
       </c>
     </row>
   </sheetData>
